--- a/データベース/※（重要）管理者情報.xlsx
+++ b/データベース/※（重要）管理者情報.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\239001\Documents\プロジェクト開発　吉武\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\239005\Desktop\アイビクション(吉武先生)\共有開発データ\データベース\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D749D4F-0922-467A-9A7E-3D5AA72002F7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70104893-3503-4D33-804D-EF6C6C51A5FE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6740" activeTab="1" xr2:uid="{821451F3-F626-4DB0-A678-FF46C59A053D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="3490" activeTab="1" xr2:uid="{821451F3-F626-4DB0-A678-FF46C59A053D}"/>
   </bookViews>
   <sheets>
     <sheet name="カスタマー" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="104">
   <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
@@ -379,18 +379,362 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>白黒パンダと土留め色</t>
-    <rPh sb="0" eb="1">
-      <t>シロ</t>
-    </rPh>
-    <rPh sb="1" eb="2">
+    <t>クジラと桜エビ冒険譚</t>
+    <rPh sb="4" eb="5">
+      <t>サクラ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>ボウケンタン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ピエール牧</t>
+    <rPh sb="4" eb="5">
+      <t>マキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>孫悟空といくアカプルコ旅行</t>
+    <rPh sb="0" eb="3">
+      <t>ソンゴクウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>リョコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クソソソ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダイドードリンコは何故B級なのか</t>
+    <rPh sb="9" eb="11">
+      <t>ナゼ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>キュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>むぬみゅのにゅ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドキッ!チェ・ゲバラの革命術</t>
+    <rPh sb="11" eb="14">
+      <t>カクメイジュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チョ・マテヨ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>紫式部に学ぶDX化</t>
+    <rPh sb="0" eb="3">
+      <t>ムラサキシキブ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>マナ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オノヨーコ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>傾向と対策、土原一平の賢い投資学</t>
+    <rPh sb="0" eb="2">
+      <t>ケイコウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>タイサク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ツチハラ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イッペイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カシコ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>トウシ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ウィル・アイアトン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロバート・オッペンハイマー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>月刊「小学生のたのしいかがく」</t>
+    <rPh sb="0" eb="2">
+      <t>ゲッカン</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ショウガクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>呪文じゃないよ。アプセトネデブ</t>
+    <rPh sb="0" eb="2">
+      <t>ジュモン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デーブス・ペクター</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>尾崎豊と薬学を知り尽くす!</t>
+    <rPh sb="0" eb="3">
+      <t>オザキユタカ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヤクガク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>槇原敬之</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完全版!男のロマン武器アート画集</t>
+    <rPh sb="0" eb="3">
+      <t>カンゼンバン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>オトコ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ブキ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ガ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>シュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高橋留美子</t>
+    <rPh sb="0" eb="5">
+      <t>タカハシルミコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セパタクローがメキメキ上達する６０の科学的メソッド</t>
+    <rPh sb="11" eb="13">
+      <t>ジョウタツ</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>カガクテキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>みりちゃむ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>同情するなら資格くれ</t>
+    <rPh sb="0" eb="2">
+      <t>ドウジョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>安達祐実</t>
+    <rPh sb="0" eb="4">
+      <t>アダチユミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TikTokで体は痩せれる!心臓は強くなれる!</t>
+    <rPh sb="7" eb="8">
+      <t>カラダ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シンゾウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ツヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>松重豊</t>
+    <rPh sb="0" eb="3">
+      <t>マツシゲユタカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>やっぱここだよ黒ちゃん、土に埋められるならココ!快適スポット20選</t>
+    <rPh sb="7" eb="8">
       <t>クロ</t>
     </rPh>
-    <rPh sb="6" eb="8">
-      <t>ドド</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>イロ</t>
+    <rPh sb="12" eb="13">
+      <t>ツチ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>カイテキ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>セン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>団長安田</t>
+    <rPh sb="0" eb="2">
+      <t>ダンチョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヤスダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>河北麻友子</t>
+    <rPh sb="0" eb="2">
+      <t>カワキタ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>マユコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>英語喋れない？ソレ、出川以下じゃん!～究極の日常会話で強くなれ!～</t>
+    <rPh sb="0" eb="2">
+      <t>エイゴ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シャベ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>デガワ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>キュウキョク</t>
+    </rPh>
+    <rPh sb="22" eb="26">
+      <t>ニチジョウカイワ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ツヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>必勝!朝一ガックン挙動で期待値を掴め!</t>
+    <rPh sb="0" eb="2">
+      <t>ヒッショウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>アサイチ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キョドウ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>キタイチ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コナン君に学ぶ音痴の治し方</t>
+    <rPh sb="3" eb="4">
+      <t>クン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>マナ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>オンチ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ナオ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>吉田歩美</t>
+    <rPh sb="0" eb="2">
+      <t>ヨシダ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>アユミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>服部平次</t>
+    <rPh sb="0" eb="2">
+      <t>ハットリ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヘイジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>木足利根曽著</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハンサムゴールデンカムイ~ラッコ相撲~</t>
+    <rPh sb="16" eb="18">
+      <t>スモウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -465,7 +809,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -476,6 +820,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -795,8 +1142,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C528710-966E-454F-9DB0-E891A2C0ED8A}">
   <dimension ref="A2:I23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1333,16 +1680,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E397B0F-3868-4B0F-BA75-016CF143CE00}">
-  <dimension ref="A2:H21"/>
+  <dimension ref="A2:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
+    <col min="3" max="3" width="6" customWidth="1"/>
     <col min="4" max="4" width="11.08203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1388,7 +1736,7 @@
       <c r="F3" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="4">
         <v>1</v>
       </c>
       <c r="H3">
@@ -1411,7 +1759,7 @@
       <c r="F4" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="4">
         <v>10</v>
       </c>
       <c r="H4">
@@ -1434,7 +1782,7 @@
       <c r="F5" t="s">
         <v>63</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="4">
         <v>17</v>
       </c>
       <c r="H5">
@@ -1457,7 +1805,7 @@
       <c r="F6" t="s">
         <v>65</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="4">
         <v>17</v>
       </c>
       <c r="H6">
@@ -1480,7 +1828,7 @@
       <c r="F7" t="s">
         <v>67</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="4">
         <v>4</v>
       </c>
       <c r="H7">
@@ -1500,70 +1848,402 @@
       <c r="E8" t="s">
         <v>68</v>
       </c>
+      <c r="F8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G8" s="4">
+        <v>17</v>
+      </c>
+      <c r="H8">
+        <v>1380</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B9">
         <v>132004</v>
       </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9" s="1">
+        <v>44325</v>
+      </c>
+      <c r="E9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" t="s">
+        <v>71</v>
+      </c>
+      <c r="G9" s="4">
+        <v>15</v>
+      </c>
+      <c r="H9">
+        <v>970</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B10">
         <v>132005</v>
       </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10" s="1">
+        <v>44630</v>
+      </c>
+      <c r="E10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F10" t="s">
+        <v>73</v>
+      </c>
+      <c r="G10" s="4">
+        <v>3</v>
+      </c>
+      <c r="H10">
+        <v>190</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B11">
         <v>132006</v>
       </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11" s="1">
+        <v>45045</v>
+      </c>
+      <c r="E11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F11" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" s="4">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <v>760</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B12">
         <v>132007</v>
       </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1">
+        <v>45292</v>
+      </c>
+      <c r="E12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" t="s">
+        <v>77</v>
+      </c>
+      <c r="G12" s="4">
+        <v>5</v>
+      </c>
+      <c r="H12">
+        <v>890</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B13">
         <v>102001</v>
       </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1">
+        <v>44876</v>
+      </c>
+      <c r="E13" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" s="4">
+        <v>6</v>
+      </c>
+      <c r="H13">
+        <v>2017</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B14">
         <v>102002</v>
       </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1">
+        <v>44086</v>
+      </c>
+      <c r="E14" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" s="4">
+        <v>7</v>
+      </c>
+      <c r="H14">
+        <v>650</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B15">
         <v>102003</v>
       </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
+        <v>44479</v>
+      </c>
+      <c r="E15" t="s">
+        <v>82</v>
+      </c>
+      <c r="F15" t="s">
+        <v>83</v>
+      </c>
+      <c r="G15" s="4">
+        <v>9</v>
+      </c>
+      <c r="H15">
+        <v>6780</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B16">
         <v>102004</v>
       </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
+        <v>45449</v>
+      </c>
+      <c r="E16" t="s">
+        <v>84</v>
+      </c>
+      <c r="F16" t="s">
+        <v>85</v>
+      </c>
+      <c r="G16" s="4">
+        <v>8</v>
+      </c>
+      <c r="H16">
+        <v>4890</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B17">
         <v>102005</v>
       </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1">
+        <v>45284</v>
+      </c>
+      <c r="E17" t="s">
+        <v>86</v>
+      </c>
+      <c r="F17" t="s">
+        <v>87</v>
+      </c>
+      <c r="G17" s="4">
+        <v>10</v>
+      </c>
+      <c r="H17">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B18">
         <v>102006</v>
       </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18" s="1">
+        <v>45312</v>
+      </c>
+      <c r="E18" t="s">
+        <v>88</v>
+      </c>
+      <c r="F18" t="s">
+        <v>89</v>
+      </c>
+      <c r="G18" s="4">
+        <v>12</v>
+      </c>
+      <c r="H18">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B19">
         <v>102007</v>
       </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19" s="1">
+        <v>45283</v>
+      </c>
+      <c r="E19" t="s">
+        <v>90</v>
+      </c>
+      <c r="F19" t="s">
+        <v>91</v>
+      </c>
+      <c r="G19" s="4">
+        <v>13</v>
+      </c>
+      <c r="H19">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B20">
         <v>143983</v>
       </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20" s="1">
+        <v>45377</v>
+      </c>
+      <c r="E20" t="s">
+        <v>92</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G20" s="4">
+        <v>14</v>
+      </c>
+      <c r="H20">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B21">
         <v>786256</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21" s="1">
+        <v>45403</v>
+      </c>
+      <c r="E21" t="s">
+        <v>94</v>
+      </c>
+      <c r="F21" t="s">
+        <v>95</v>
+      </c>
+      <c r="G21" s="4">
+        <v>15</v>
+      </c>
+      <c r="H21">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B22">
+        <v>786256</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22" s="1">
+        <v>45656</v>
+      </c>
+      <c r="E22" t="s">
+        <v>97</v>
+      </c>
+      <c r="F22" t="s">
+        <v>96</v>
+      </c>
+      <c r="G22" s="4">
+        <v>16</v>
+      </c>
+      <c r="H22">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B23">
+        <v>102008</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1">
+        <v>45613</v>
+      </c>
+      <c r="E23" t="s">
+        <v>98</v>
+      </c>
+      <c r="F23" t="s">
+        <v>101</v>
+      </c>
+      <c r="G23" s="4">
+        <v>20</v>
+      </c>
+      <c r="H23">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B24">
+        <v>102008</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24" s="1">
+        <v>45441</v>
+      </c>
+      <c r="E24" t="s">
+        <v>99</v>
+      </c>
+      <c r="F24" t="s">
+        <v>100</v>
+      </c>
+      <c r="G24" s="4">
+        <v>22</v>
+      </c>
+      <c r="H24">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25" s="1">
+        <v>45442</v>
+      </c>
+      <c r="E25" t="s">
+        <v>103</v>
+      </c>
+      <c r="F25" t="s">
+        <v>102</v>
+      </c>
+      <c r="G25" s="4">
+        <v>11</v>
+      </c>
+      <c r="H25">
+        <v>801</v>
       </c>
     </row>
   </sheetData>
@@ -1752,15 +2432,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="2d50a084-93a8-405b-8960-d5f1cef6fa5d">
@@ -1770,14 +2441,47 @@
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9FCBD2B-2A7B-4FDA-9626-3B55F4EC28E6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9FCBD2B-2A7B-4FDA-9626-3B55F4EC28E6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="2d50a084-93a8-405b-8960-d5f1cef6fa5d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B766932-2E45-4BFB-923D-9CE3AF707BE3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B4F6BA0-B8C3-43D1-AEB4-F679EF05FCA2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="2d50a084-93a8-405b-8960-d5f1cef6fa5d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B4F6BA0-B8C3-43D1-AEB4-F679EF05FCA2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B766932-2E45-4BFB-923D-9CE3AF707BE3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/データベース/※（重要）管理者情報.xlsx
+++ b/データベース/※（重要）管理者情報.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\239005\Desktop\アイビクション(吉武先生)\共有開発データ\データベース\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70104893-3503-4D33-804D-EF6C6C51A5FE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7E2F199-E08B-40A7-9F63-81BBE5B2350C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="3490" activeTab="1" xr2:uid="{821451F3-F626-4DB0-A678-FF46C59A053D}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="106">
   <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
@@ -735,6 +735,20 @@
     <t>ハンサムゴールデンカムイ~ラッコ相撲~</t>
     <rPh sb="16" eb="18">
       <t>スモウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バイオハザード攻略法</t>
+    <rPh sb="7" eb="10">
+      <t>コウリャクホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>狩野英孝</t>
+    <rPh sb="0" eb="4">
+      <t>カノエイコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -784,12 +798,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -809,7 +829,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -823,6 +843,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1680,10 +1703,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E397B0F-3868-4B0F-BA75-016CF143CE00}">
-  <dimension ref="A2:H25"/>
+  <dimension ref="A2:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1695,28 +1719,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
+      <c r="A2" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="5" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2227,6 +2251,9 @@
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B25">
+        <v>221006</v>
+      </c>
       <c r="C25">
         <v>2</v>
       </c>
@@ -2244,6 +2271,117 @@
       </c>
       <c r="H25">
         <v>801</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B26">
+        <v>221007</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1">
+        <v>44733</v>
+      </c>
+      <c r="E26" t="s">
+        <v>104</v>
+      </c>
+      <c r="F26" t="s">
+        <v>105</v>
+      </c>
+      <c r="G26" s="4">
+        <v>19</v>
+      </c>
+      <c r="H26">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B27">
+        <v>221008</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27" s="1">
+        <v>44799</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B28">
+        <v>221009</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="D28" s="1">
+        <v>44458</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B29">
+        <v>221010</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1">
+        <v>45250</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B30">
+        <v>221011</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30" s="1">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B31">
+        <v>221012</v>
+      </c>
+      <c r="C31">
+        <v>3</v>
+      </c>
+      <c r="D31" s="1">
+        <v>44813</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B32">
+        <v>221013</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1">
+        <v>45242</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B33">
+        <v>221014</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33" s="1">
+        <v>45209</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B34">
+        <v>221015</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+      <c r="D34" s="1">
+        <v>44291</v>
       </c>
     </row>
   </sheetData>
@@ -2254,6 +2392,16 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2d50a084-93a8-405b-8960-d5f1cef6fa5d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100F6A22B1C81D78643B33A6B784A8F7C4A" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="63889d32b2ea2c0b9212e4b81ce9afbc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2d50a084-93a8-405b-8960-d5f1cef6fa5d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bf8056ffa544be42e4b68638754c0970" ns2:_="">
     <xsd:import namespace="2d50a084-93a8-405b-8960-d5f1cef6fa5d"/>
@@ -2431,16 +2579,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2d50a084-93a8-405b-8960-d5f1cef6fa5d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2451,6 +2589,16 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B4F6BA0-B8C3-43D1-AEB4-F679EF05FCA2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="2d50a084-93a8-405b-8960-d5f1cef6fa5d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9FCBD2B-2A7B-4FDA-9626-3B55F4EC28E6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2468,16 +2616,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B4F6BA0-B8C3-43D1-AEB4-F679EF05FCA2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="2d50a084-93a8-405b-8960-d5f1cef6fa5d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B766932-2E45-4BFB-923D-9CE3AF707BE3}">
   <ds:schemaRefs>

--- a/データベース/※（重要）管理者情報.xlsx
+++ b/データベース/※（重要）管理者情報.xlsx
@@ -5,16 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\239005\Desktop\アイビクション(吉武先生)\共有開発データ\データベース\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\239001\Desktop\PG開発\データベース\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70104893-3503-4D33-804D-EF6C6C51A5FE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D62FE7D-3DFD-4693-8D75-84B4222EDFDF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="3490" activeTab="1" xr2:uid="{821451F3-F626-4DB0-A678-FF46C59A053D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="3490" activeTab="3" xr2:uid="{821451F3-F626-4DB0-A678-FF46C59A053D}"/>
   </bookViews>
   <sheets>
     <sheet name="カスタマー" sheetId="1" r:id="rId1"/>
     <sheet name="ブック" sheetId="2" r:id="rId2"/>
+    <sheet name="都道府県" sheetId="3" r:id="rId3"/>
+    <sheet name="カテゴリー" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="180">
   <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
@@ -735,6 +737,598 @@
     <t>ハンサムゴールデンカムイ~ラッコ相撲~</t>
     <rPh sb="16" eb="18">
       <t>スモウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤嶺昂太</t>
+    <rPh sb="0" eb="2">
+      <t>アカミネ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>タカブ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>フト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカミネコウタ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>093-789-0123</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブックテーブル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>都道府県ID</t>
+    <rPh sb="0" eb="4">
+      <t>トドウフケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>北海道</t>
+    <rPh sb="0" eb="3">
+      <t>ホッカイドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>青森県</t>
+    <rPh sb="0" eb="2">
+      <t>アオモリ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>岩手県</t>
+    <rPh sb="0" eb="2">
+      <t>イワテ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宮城県</t>
+    <rPh sb="0" eb="2">
+      <t>ミヤギ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>秋田県</t>
+    <rPh sb="0" eb="2">
+      <t>アキタ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山形県</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマガタ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>福島県</t>
+    <rPh sb="0" eb="2">
+      <t>フクシマ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>茨城県</t>
+    <rPh sb="0" eb="2">
+      <t>イバラキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>栃木県</t>
+    <rPh sb="0" eb="2">
+      <t>トチギ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>群馬県</t>
+    <rPh sb="0" eb="2">
+      <t>グンマ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>埼玉県</t>
+    <rPh sb="0" eb="2">
+      <t>サイタマ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>千葉県</t>
+    <rPh sb="0" eb="3">
+      <t>チバケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>東京都</t>
+    <rPh sb="0" eb="2">
+      <t>トウキョウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>神奈川県</t>
+    <rPh sb="0" eb="4">
+      <t>カナガワケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新潟県</t>
+    <rPh sb="0" eb="3">
+      <t>ニイガタケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>富山県</t>
+    <rPh sb="0" eb="3">
+      <t>トヤマケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>石川県</t>
+    <rPh sb="0" eb="3">
+      <t>イシカワケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>福井県</t>
+    <rPh sb="0" eb="3">
+      <t>フクイケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山梨県</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマナシケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>長野県</t>
+    <rPh sb="0" eb="3">
+      <t>ナガノケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>岐阜県</t>
+    <rPh sb="0" eb="3">
+      <t>ギフケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>静岡県</t>
+    <rPh sb="0" eb="3">
+      <t>シズオカケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>愛知県</t>
+    <rPh sb="0" eb="3">
+      <t>アイチケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>三重県</t>
+    <rPh sb="0" eb="3">
+      <t>ミエケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>滋賀県</t>
+    <rPh sb="0" eb="3">
+      <t>シガケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>京都府</t>
+    <rPh sb="0" eb="3">
+      <t>キョウトフ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大阪府</t>
+    <rPh sb="0" eb="3">
+      <t>オオサカフ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>兵庫県</t>
+    <rPh sb="0" eb="3">
+      <t>ヒョウゴケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>奈良県</t>
+    <rPh sb="0" eb="3">
+      <t>ナラケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>和歌山県</t>
+    <rPh sb="0" eb="4">
+      <t>ワカヤマケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鳥取県</t>
+    <rPh sb="0" eb="2">
+      <t>トットリ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>島根県</t>
+    <rPh sb="0" eb="2">
+      <t>シマネ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>岡山県</t>
+    <rPh sb="0" eb="3">
+      <t>オカヤマケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>広島県</t>
+    <rPh sb="0" eb="3">
+      <t>ヒロシマケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山口県</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマグチケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>徳島県</t>
+    <rPh sb="0" eb="3">
+      <t>トクシマケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>香川県</t>
+    <rPh sb="0" eb="3">
+      <t>カガワケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>愛媛県</t>
+    <rPh sb="0" eb="3">
+      <t>エヒメケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高知県</t>
+    <rPh sb="0" eb="3">
+      <t>コウチケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>福岡県</t>
+    <rPh sb="0" eb="3">
+      <t>フクオカケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>佐賀県</t>
+    <rPh sb="0" eb="3">
+      <t>サガケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>長崎県</t>
+    <rPh sb="0" eb="2">
+      <t>ナガサキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本県</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大分県</t>
+    <rPh sb="0" eb="3">
+      <t>オオイタケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宮崎県</t>
+    <rPh sb="0" eb="3">
+      <t>ミヤザキケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鹿児島県</t>
+    <rPh sb="0" eb="4">
+      <t>カゴシマケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>沖縄県</t>
+    <rPh sb="0" eb="3">
+      <t>オキナワケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カテゴリーID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文学・評論</t>
+    <rPh sb="0" eb="2">
+      <t>ブンガク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒョウロン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>人文・思想</t>
+    <rPh sb="0" eb="2">
+      <t>ジンブン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社会・政治</t>
+    <rPh sb="0" eb="2">
+      <t>シャカイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セイジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>歴史・地理</t>
+    <rPh sb="0" eb="2">
+      <t>レキシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>チリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ビジネス・経済</t>
+    <rPh sb="5" eb="7">
+      <t>ケイザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投資・金融</t>
+    <rPh sb="0" eb="2">
+      <t>トウシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キンユウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>科学・テクノロジー</t>
+    <rPh sb="0" eb="2">
+      <t>カガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>医学・薬学</t>
+    <rPh sb="0" eb="2">
+      <t>イガク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヤクガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンピュータ・IT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アート・デザイン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>趣味・実用</t>
+    <rPh sb="0" eb="2">
+      <t>シュミ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スポーツ・アウトドア</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>資格・検定</t>
+    <rPh sb="0" eb="2">
+      <t>シカク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>暮らし・健康</t>
+    <rPh sb="0" eb="1">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>旅行ガイド</t>
+    <rPh sb="0" eb="2">
+      <t>リョコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>語学・辞事典</t>
+    <rPh sb="0" eb="2">
+      <t>ゴガク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>テン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>教育・受験</t>
+    <rPh sb="0" eb="2">
+      <t>キョウイク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジュケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>絵本・児童書</t>
+    <rPh sb="0" eb="2">
+      <t>エホン</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ジドウショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームブック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エンターテイメント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>雑誌</t>
+    <rPh sb="0" eb="2">
+      <t>ザッシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>楽譜・音楽書</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>古書</t>
+    <rPh sb="0" eb="2">
+      <t>コショ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1140,17 +1734,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C528710-966E-454F-9DB0-E891A2C0ED8A}">
-  <dimension ref="A2:I23"/>
+  <dimension ref="A2:I24"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.4140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.08203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.08203125" customWidth="1"/>
     <col min="9" max="9" width="11.08203125" bestFit="1" customWidth="1"/>
@@ -1669,6 +2262,32 @@
       </c>
       <c r="I23" s="1">
         <v>42178</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B24">
+        <v>1122</v>
+      </c>
+      <c r="C24" t="s">
+        <v>104</v>
+      </c>
+      <c r="D24" t="s">
+        <v>105</v>
+      </c>
+      <c r="E24" t="s">
+        <v>106</v>
+      </c>
+      <c r="F24">
+        <v>40</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>99</v>
+      </c>
+      <c r="I24" s="1">
+        <v>9353</v>
       </c>
     </row>
   </sheetData>
@@ -1680,21 +2299,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E397B0F-3868-4B0F-BA75-016CF143CE00}">
-  <dimension ref="A2:H25"/>
+  <dimension ref="A2:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="3" max="3" width="6" customWidth="1"/>
-    <col min="4" max="4" width="11.08203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.08203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="62.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.08203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>52</v>
       </c>
@@ -1702,547 +2323,550 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" t="s">
         <v>53</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>54</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>58</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>55</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B3">
         <v>221001</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>1</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E3" s="1">
         <v>45388</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>57</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G3" s="4">
+      <c r="H3" s="4">
         <v>1</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>1375</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B4">
         <v>221002</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>1</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E4" s="1">
         <v>45287</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>60</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G4" s="4">
+      <c r="H4" s="4">
         <v>10</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>1320</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B5">
         <v>221003</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>1</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E5" s="1">
         <v>45439</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>62</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>63</v>
       </c>
-      <c r="G5" s="4">
+      <c r="H5" s="4">
         <v>17</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>2980</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B6">
         <v>221004</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>2</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E6" s="1">
         <v>45145</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>64</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>65</v>
       </c>
-      <c r="G6" s="4">
+      <c r="H6" s="4">
         <v>17</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>1760</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B7">
         <v>221005</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>1</v>
       </c>
-      <c r="D7" s="1">
+      <c r="E7" s="1">
         <v>44878</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>66</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>67</v>
       </c>
-      <c r="G7" s="4">
+      <c r="H7" s="4">
         <v>4</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>980</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B8">
         <v>132003</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>2</v>
       </c>
-      <c r="D8" s="1">
+      <c r="E8" s="1">
         <v>43991</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>68</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>69</v>
       </c>
-      <c r="G8" s="4">
+      <c r="H8" s="4">
         <v>17</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>1380</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B9">
         <v>132004</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>3</v>
       </c>
-      <c r="D9" s="1">
+      <c r="E9" s="1">
         <v>44325</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>70</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>71</v>
       </c>
-      <c r="G9" s="4">
+      <c r="H9" s="4">
         <v>15</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>970</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B10">
         <v>132005</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>3</v>
       </c>
-      <c r="D10" s="1">
+      <c r="E10" s="1">
         <v>44630</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>72</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>73</v>
       </c>
-      <c r="G10" s="4">
+      <c r="H10" s="4">
         <v>3</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>190</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B11">
         <v>132006</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>3</v>
       </c>
-      <c r="D11" s="1">
+      <c r="E11" s="1">
         <v>45045</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>74</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>75</v>
       </c>
-      <c r="G11" s="4">
+      <c r="H11" s="4">
         <v>2</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>760</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B12">
         <v>132007</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>2</v>
       </c>
-      <c r="D12" s="1">
+      <c r="E12" s="1">
         <v>45292</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>76</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>77</v>
       </c>
-      <c r="G12" s="4">
+      <c r="H12" s="4">
         <v>5</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>890</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B13">
         <v>102001</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>2</v>
       </c>
-      <c r="D13" s="1">
+      <c r="E13" s="1">
         <v>44876</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>78</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>79</v>
       </c>
-      <c r="G13" s="4">
+      <c r="H13" s="4">
         <v>6</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>2017</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B14">
         <v>102002</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>2</v>
       </c>
-      <c r="D14" s="1">
+      <c r="E14" s="1">
         <v>44086</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>81</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>80</v>
       </c>
-      <c r="G14" s="4">
+      <c r="H14" s="4">
         <v>7</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>650</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B15">
         <v>102003</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>1</v>
       </c>
-      <c r="D15" s="1">
+      <c r="E15" s="1">
         <v>44479</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>82</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>83</v>
       </c>
-      <c r="G15" s="4">
+      <c r="H15" s="4">
         <v>9</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>6780</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B16">
         <v>102004</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>1</v>
       </c>
-      <c r="D16" s="1">
+      <c r="E16" s="1">
         <v>45449</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>84</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>85</v>
       </c>
-      <c r="G16" s="4">
+      <c r="H16" s="4">
         <v>8</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>4890</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B17">
         <v>102005</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>1</v>
       </c>
-      <c r="D17" s="1">
+      <c r="E17" s="1">
         <v>45284</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>86</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>87</v>
       </c>
-      <c r="G17" s="4">
+      <c r="H17" s="4">
         <v>10</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>2900</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B18">
         <v>102006</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>2</v>
       </c>
-      <c r="D18" s="1">
+      <c r="E18" s="1">
         <v>45312</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>88</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>89</v>
       </c>
-      <c r="G18" s="4">
+      <c r="H18" s="4">
         <v>12</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>2500</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B19">
         <v>102007</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>2</v>
       </c>
-      <c r="D19" s="1">
+      <c r="E19" s="1">
         <v>45283</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>90</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>91</v>
       </c>
-      <c r="G19" s="4">
+      <c r="H19" s="4">
         <v>13</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>1700</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B20">
         <v>143983</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>2</v>
       </c>
-      <c r="D20" s="1">
+      <c r="E20" s="1">
         <v>45377</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>92</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="G20" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="G20" s="4">
+      <c r="H20" s="4">
         <v>14</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>2100</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B21">
         <v>786256</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>3</v>
       </c>
-      <c r="D21" s="1">
+      <c r="E21" s="1">
         <v>45403</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>94</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>95</v>
       </c>
-      <c r="G21" s="4">
+      <c r="H21" s="4">
         <v>15</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>4200</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B22">
         <v>786256</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>3</v>
       </c>
-      <c r="D22" s="1">
+      <c r="E22" s="1">
         <v>45656</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>97</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>96</v>
       </c>
-      <c r="G22" s="4">
+      <c r="H22" s="4">
         <v>16</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>3500</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B23">
         <v>102008</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>1</v>
       </c>
-      <c r="D23" s="1">
+      <c r="E23" s="1">
         <v>45613</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>98</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>101</v>
       </c>
-      <c r="G23" s="4">
+      <c r="H23" s="4">
         <v>20</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>666</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B24">
         <v>102008</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>2</v>
       </c>
-      <c r="D24" s="1">
+      <c r="E24" s="1">
         <v>45441</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>99</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>100</v>
       </c>
-      <c r="G24" s="4">
+      <c r="H24" s="4">
         <v>22</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>980</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="C25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="D25">
         <v>2</v>
       </c>
-      <c r="D25" s="1">
+      <c r="E25" s="1">
         <v>45442</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>103</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>102</v>
       </c>
-      <c r="G25" s="4">
+      <c r="H25" s="4">
         <v>11</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>801</v>
       </c>
     </row>
@@ -2253,7 +2877,624 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DDF8516-7B01-4D7D-B680-3ABF8BAC77E5}">
+  <dimension ref="A2:C48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="10.4140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B28">
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B30">
+        <v>29</v>
+      </c>
+      <c r="C30" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B31">
+        <v>30</v>
+      </c>
+      <c r="C31" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B32">
+        <v>31</v>
+      </c>
+      <c r="C32" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B33">
+        <v>32</v>
+      </c>
+      <c r="C33" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B34">
+        <v>33</v>
+      </c>
+      <c r="C34" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B35">
+        <v>34</v>
+      </c>
+      <c r="C35" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B36">
+        <v>35</v>
+      </c>
+      <c r="C36" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B37">
+        <v>36</v>
+      </c>
+      <c r="C37" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B38">
+        <v>37</v>
+      </c>
+      <c r="C38" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B39">
+        <v>38</v>
+      </c>
+      <c r="C39" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B40">
+        <v>39</v>
+      </c>
+      <c r="C40" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B41">
+        <v>40</v>
+      </c>
+      <c r="C41" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B42">
+        <v>41</v>
+      </c>
+      <c r="C42" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B43">
+        <v>42</v>
+      </c>
+      <c r="C43" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B44">
+        <v>43</v>
+      </c>
+      <c r="C44" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B45">
+        <v>44</v>
+      </c>
+      <c r="C45" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B46">
+        <v>45</v>
+      </c>
+      <c r="C46" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B47">
+        <v>46</v>
+      </c>
+      <c r="C47" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B48">
+        <v>47</v>
+      </c>
+      <c r="C48" t="s">
+        <v>155</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{910BA777-4592-496E-8427-7412334E9877}">
+  <dimension ref="A2:C24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>179</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2d50a084-93a8-405b-8960-d5f1cef6fa5d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100F6A22B1C81D78643B33A6B784A8F7C4A" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="63889d32b2ea2c0b9212e4b81ce9afbc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2d50a084-93a8-405b-8960-d5f1cef6fa5d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bf8056ffa544be42e4b68638754c0970" ns2:_="">
     <xsd:import namespace="2d50a084-93a8-405b-8960-d5f1cef6fa5d"/>
@@ -2431,16 +3672,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2d50a084-93a8-405b-8960-d5f1cef6fa5d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2451,6 +3682,16 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B4F6BA0-B8C3-43D1-AEB4-F679EF05FCA2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="2d50a084-93a8-405b-8960-d5f1cef6fa5d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9FCBD2B-2A7B-4FDA-9626-3B55F4EC28E6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2468,16 +3709,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B4F6BA0-B8C3-43D1-AEB4-F679EF05FCA2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="2d50a084-93a8-405b-8960-d5f1cef6fa5d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B766932-2E45-4BFB-923D-9CE3AF707BE3}">
   <ds:schemaRefs>

--- a/データベース/※（重要）管理者情報.xlsx
+++ b/データベース/※（重要）管理者情報.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\239001\Desktop\PG開発\データベース\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\php_note\pg\データベース\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D62FE7D-3DFD-4693-8D75-84B4222EDFDF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC81E6D-92E9-40BD-AB51-DEDC3ABD403D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="3490" activeTab="3" xr2:uid="{821451F3-F626-4DB0-A678-FF46C59A053D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="3490" activeTab="4" xr2:uid="{821451F3-F626-4DB0-A678-FF46C59A053D}"/>
   </bookViews>
   <sheets>
     <sheet name="カスタマー" sheetId="1" r:id="rId1"/>
     <sheet name="ブック" sheetId="2" r:id="rId2"/>
     <sheet name="都道府県" sheetId="3" r:id="rId3"/>
     <sheet name="カテゴリー" sheetId="4" r:id="rId4"/>
+    <sheet name="Buy" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="186">
   <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
@@ -1329,6 +1330,51 @@
     <t>古書</t>
     <rPh sb="0" eb="2">
       <t>コショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>buyテーブル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>顧客ID</t>
+    <rPh sb="0" eb="2">
+      <t>コキャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>書籍ID</t>
+    <rPh sb="0" eb="2">
+      <t>ショセキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>購入日</t>
+    <rPh sb="0" eb="2">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>購入数</t>
+    <rPh sb="0" eb="2">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>書籍ID</t>
+    <rPh sb="0" eb="2">
+      <t>ショセキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1736,8 +1782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C528710-966E-454F-9DB0-E891A2C0ED8A}">
   <dimension ref="A2:I24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2299,23 +2345,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E397B0F-3868-4B0F-BA75-016CF143CE00}">
-  <dimension ref="A2:I25"/>
+  <dimension ref="A2:J25"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.08203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="62.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.08203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" customWidth="1"/>
+    <col min="5" max="5" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.08203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="62.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.08203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>52</v>
       </c>
@@ -2326,547 +2373,619 @@
         <v>107</v>
       </c>
       <c r="D2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E2" t="s">
         <v>53</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>54</v>
       </c>
-      <c r="F2" t="s">
-        <v>1</v>
-      </c>
       <c r="G2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
         <v>58</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>55</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B3">
         <v>221001</v>
       </c>
       <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1">
+        <v>221001</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
         <v>45388</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>57</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="H3" s="4">
-        <v>1</v>
-      </c>
-      <c r="I3">
+      <c r="I3" s="4">
+        <v>1</v>
+      </c>
+      <c r="J3">
         <v>1375</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B4">
         <v>221002</v>
       </c>
       <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1">
+        <v>221002</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
         <v>45287</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>60</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="H4" s="4">
+      <c r="I4" s="4">
         <v>10</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>1320</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B5">
         <v>221003</v>
       </c>
       <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1">
+        <v>221003</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
         <v>45439</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>62</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>63</v>
       </c>
-      <c r="H5" s="4">
+      <c r="I5" s="4">
         <v>17</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>2980</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B6">
         <v>221004</v>
       </c>
       <c r="D6">
+        <v>221004</v>
+      </c>
+      <c r="E6">
         <v>2</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F6" s="1">
         <v>45145</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>64</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>65</v>
       </c>
-      <c r="H6" s="4">
+      <c r="I6" s="4">
         <v>17</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>1760</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B7">
         <v>221005</v>
       </c>
       <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1">
+        <v>221005</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
         <v>44878</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>66</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>67</v>
       </c>
-      <c r="H7" s="4">
+      <c r="I7" s="4">
         <v>4</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>980</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B8">
         <v>132003</v>
       </c>
       <c r="D8">
+        <v>221006</v>
+      </c>
+      <c r="E8">
         <v>2</v>
       </c>
-      <c r="E8" s="1">
+      <c r="F8" s="1">
         <v>43991</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>68</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>69</v>
       </c>
-      <c r="H8" s="4">
+      <c r="I8" s="4">
         <v>17</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>1380</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B9">
         <v>132004</v>
       </c>
       <c r="D9">
+        <v>221007</v>
+      </c>
+      <c r="E9">
         <v>3</v>
       </c>
-      <c r="E9" s="1">
+      <c r="F9" s="1">
         <v>44325</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>70</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>71</v>
       </c>
-      <c r="H9" s="4">
+      <c r="I9" s="4">
         <v>15</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>970</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B10">
         <v>132005</v>
       </c>
       <c r="D10">
+        <v>221008</v>
+      </c>
+      <c r="E10">
         <v>3</v>
       </c>
-      <c r="E10" s="1">
+      <c r="F10" s="1">
         <v>44630</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>72</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>73</v>
       </c>
-      <c r="H10" s="4">
+      <c r="I10" s="4">
         <v>3</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>190</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B11">
         <v>132006</v>
       </c>
       <c r="D11">
+        <v>221009</v>
+      </c>
+      <c r="E11">
         <v>3</v>
       </c>
-      <c r="E11" s="1">
+      <c r="F11" s="1">
         <v>45045</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>74</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>75</v>
       </c>
-      <c r="H11" s="4">
+      <c r="I11" s="4">
         <v>2</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>760</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B12">
         <v>132007</v>
       </c>
       <c r="D12">
+        <v>221010</v>
+      </c>
+      <c r="E12">
         <v>2</v>
       </c>
-      <c r="E12" s="1">
+      <c r="F12" s="1">
         <v>45292</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>76</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>77</v>
       </c>
-      <c r="H12" s="4">
+      <c r="I12" s="4">
         <v>5</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>890</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B13">
         <v>102001</v>
       </c>
       <c r="D13">
+        <v>221011</v>
+      </c>
+      <c r="E13">
         <v>2</v>
       </c>
-      <c r="E13" s="1">
+      <c r="F13" s="1">
         <v>44876</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>78</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>79</v>
       </c>
-      <c r="H13" s="4">
+      <c r="I13" s="4">
         <v>6</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>2017</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B14">
         <v>102002</v>
       </c>
       <c r="D14">
+        <v>221012</v>
+      </c>
+      <c r="E14">
         <v>2</v>
       </c>
-      <c r="E14" s="1">
+      <c r="F14" s="1">
         <v>44086</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>81</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>80</v>
       </c>
-      <c r="H14" s="4">
+      <c r="I14" s="4">
         <v>7</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>650</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B15">
         <v>102003</v>
       </c>
       <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15" s="1">
+        <v>221013</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
         <v>44479</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>82</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>83</v>
       </c>
-      <c r="H15" s="4">
+      <c r="I15" s="4">
         <v>9</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>6780</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B16">
         <v>102004</v>
       </c>
       <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16" s="1">
+        <v>221014</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
         <v>45449</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>84</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>85</v>
       </c>
-      <c r="H16" s="4">
+      <c r="I16" s="4">
         <v>8</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>4890</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B17">
         <v>102005</v>
       </c>
       <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17" s="1">
+        <v>221015</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
         <v>45284</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>86</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>87</v>
       </c>
-      <c r="H17" s="4">
+      <c r="I17" s="4">
         <v>10</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>2900</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B18">
         <v>102006</v>
       </c>
       <c r="D18">
+        <v>221016</v>
+      </c>
+      <c r="E18">
         <v>2</v>
       </c>
-      <c r="E18" s="1">
+      <c r="F18" s="1">
         <v>45312</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>88</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>89</v>
       </c>
-      <c r="H18" s="4">
+      <c r="I18" s="4">
         <v>12</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>2500</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B19">
         <v>102007</v>
       </c>
       <c r="D19">
+        <v>221017</v>
+      </c>
+      <c r="E19">
         <v>2</v>
       </c>
-      <c r="E19" s="1">
+      <c r="F19" s="1">
         <v>45283</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>90</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>91</v>
       </c>
-      <c r="H19" s="4">
+      <c r="I19" s="4">
         <v>13</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>1700</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B20">
         <v>143983</v>
       </c>
       <c r="D20">
+        <v>221018</v>
+      </c>
+      <c r="E20">
         <v>2</v>
       </c>
-      <c r="E20" s="1">
+      <c r="F20" s="1">
         <v>45377</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>92</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="H20" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="H20" s="4">
+      <c r="I20" s="4">
         <v>14</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>2100</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B21">
         <v>786256</v>
       </c>
       <c r="D21">
+        <v>221019</v>
+      </c>
+      <c r="E21">
         <v>3</v>
       </c>
-      <c r="E21" s="1">
+      <c r="F21" s="1">
         <v>45403</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>94</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>95</v>
       </c>
-      <c r="H21" s="4">
+      <c r="I21" s="4">
         <v>15</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>4200</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B22">
         <v>786256</v>
       </c>
       <c r="D22">
+        <v>221020</v>
+      </c>
+      <c r="E22">
         <v>3</v>
       </c>
-      <c r="E22" s="1">
+      <c r="F22" s="1">
         <v>45656</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>97</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>96</v>
       </c>
-      <c r="H22" s="4">
+      <c r="I22" s="4">
         <v>16</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>3500</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B23">
         <v>102008</v>
       </c>
       <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23" s="1">
+        <v>221021</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1">
         <v>45613</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>98</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>101</v>
       </c>
-      <c r="H23" s="4">
+      <c r="I23" s="4">
         <v>20</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>666</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B24">
         <v>102008</v>
       </c>
       <c r="D24">
+        <v>221022</v>
+      </c>
+      <c r="E24">
         <v>2</v>
       </c>
-      <c r="E24" s="1">
+      <c r="F24" s="1">
         <v>45441</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>99</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>100</v>
       </c>
-      <c r="H24" s="4">
+      <c r="I24" s="4">
         <v>22</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>980</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="D25">
+        <v>221023</v>
+      </c>
+      <c r="E25">
         <v>2</v>
       </c>
-      <c r="E25" s="1">
+      <c r="F25" s="1">
         <v>45442</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>103</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>102</v>
       </c>
-      <c r="H25" s="4">
+      <c r="I25" s="4">
         <v>11</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>801</v>
       </c>
     </row>
@@ -3281,7 +3400,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{910BA777-4592-496E-8427-7412334E9877}">
   <dimension ref="A2:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
@@ -3484,14 +3603,513 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FEC647B-3FCB-4D5B-BD81-B7FF9BAA6875}">
+  <dimension ref="A2:E35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="11.4140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.08203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3">
+        <v>1101</v>
+      </c>
+      <c r="C3">
+        <v>221001</v>
+      </c>
+      <c r="D3" s="1">
+        <v>45390</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4">
+        <v>1101</v>
+      </c>
+      <c r="C4">
+        <v>221010</v>
+      </c>
+      <c r="D4" s="1">
+        <v>45324</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5">
+        <v>1101</v>
+      </c>
+      <c r="C5">
+        <v>221008</v>
+      </c>
+      <c r="D5" s="1">
+        <v>44635</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6">
+        <v>1102</v>
+      </c>
+      <c r="C6">
+        <v>221001</v>
+      </c>
+      <c r="D6" s="1">
+        <v>45391</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7">
+        <v>1102</v>
+      </c>
+      <c r="C7">
+        <v>221005</v>
+      </c>
+      <c r="D7" s="1">
+        <v>44882</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8">
+        <v>1102</v>
+      </c>
+      <c r="C8">
+        <v>221020</v>
+      </c>
+      <c r="D8" s="1">
+        <v>45656</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9">
+        <v>1103</v>
+      </c>
+      <c r="C9">
+        <v>221016</v>
+      </c>
+      <c r="D9" s="1">
+        <v>45320</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10">
+        <v>1103</v>
+      </c>
+      <c r="C10">
+        <v>221012</v>
+      </c>
+      <c r="D10" s="1">
+        <v>44089</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11">
+        <v>1103</v>
+      </c>
+      <c r="C11">
+        <v>221017</v>
+      </c>
+      <c r="D11" s="1">
+        <v>45283</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12">
+        <v>1104</v>
+      </c>
+      <c r="C12">
+        <v>221001</v>
+      </c>
+      <c r="D12" s="1">
+        <v>45390</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13">
+        <v>1104</v>
+      </c>
+      <c r="C13">
+        <v>221022</v>
+      </c>
+      <c r="D13" s="1">
+        <v>45446</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14">
+        <v>1104</v>
+      </c>
+      <c r="C14">
+        <v>221018</v>
+      </c>
+      <c r="D14" s="1">
+        <v>45408</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15">
+        <v>1105</v>
+      </c>
+      <c r="C15">
+        <v>221006</v>
+      </c>
+      <c r="D15" s="1">
+        <v>44001</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16">
+        <v>1105</v>
+      </c>
+      <c r="C16">
+        <v>221010</v>
+      </c>
+      <c r="D16" s="1">
+        <v>45352</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17">
+        <v>1106</v>
+      </c>
+      <c r="C17">
+        <v>221023</v>
+      </c>
+      <c r="D17" s="1">
+        <v>45486</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18">
+        <v>1106</v>
+      </c>
+      <c r="C18">
+        <v>221005</v>
+      </c>
+      <c r="D18" s="1">
+        <v>45212</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19">
+        <v>1107</v>
+      </c>
+      <c r="C19">
+        <v>221008</v>
+      </c>
+      <c r="D19" s="1">
+        <v>44719</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B20">
+        <v>1107</v>
+      </c>
+      <c r="C20">
+        <v>221011</v>
+      </c>
+      <c r="D20" s="1">
+        <v>44906</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B21">
+        <v>1108</v>
+      </c>
+      <c r="C21">
+        <v>221004</v>
+      </c>
+      <c r="D21" s="1">
+        <v>45157</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B22">
+        <v>1108</v>
+      </c>
+      <c r="C22">
+        <v>221002</v>
+      </c>
+      <c r="D22" s="1">
+        <v>45294</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B23">
+        <v>1109</v>
+      </c>
+      <c r="C23">
+        <v>221011</v>
+      </c>
+      <c r="D23" s="1">
+        <v>44900</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B24">
+        <v>1109</v>
+      </c>
+      <c r="C24">
+        <v>221021</v>
+      </c>
+      <c r="D24" s="1">
+        <v>45615</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B25">
+        <v>1110</v>
+      </c>
+      <c r="C25">
+        <v>221023</v>
+      </c>
+      <c r="D25" s="1">
+        <v>45442</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B26">
+        <v>1110</v>
+      </c>
+      <c r="C26">
+        <v>221012</v>
+      </c>
+      <c r="D26" s="1">
+        <v>44086</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B27">
+        <v>1111</v>
+      </c>
+      <c r="C27">
+        <v>221019</v>
+      </c>
+      <c r="D27" s="1">
+        <v>45451</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B28">
+        <v>1111</v>
+      </c>
+      <c r="C28">
+        <v>221014</v>
+      </c>
+      <c r="D28" s="1">
+        <v>45541</v>
+      </c>
+      <c r="E28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B29">
+        <v>1112</v>
+      </c>
+      <c r="C29">
+        <v>221007</v>
+      </c>
+      <c r="D29" s="1">
+        <v>44443</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B30">
+        <v>1112</v>
+      </c>
+      <c r="C30">
+        <v>221016</v>
+      </c>
+      <c r="D30" s="1">
+        <v>45420</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B31">
+        <v>1113</v>
+      </c>
+      <c r="C31">
+        <v>221020</v>
+      </c>
+      <c r="D31" s="1">
+        <v>45656</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B32">
+        <v>1113</v>
+      </c>
+      <c r="C32">
+        <v>221021</v>
+      </c>
+      <c r="D32" s="1">
+        <v>45613</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B33">
+        <v>1114</v>
+      </c>
+      <c r="C33">
+        <v>221017</v>
+      </c>
+      <c r="D33" s="1">
+        <v>45405</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B34">
+        <v>1114</v>
+      </c>
+      <c r="C34">
+        <v>221009</v>
+      </c>
+      <c r="D34" s="1">
+        <v>45046</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B35">
+        <v>1115</v>
+      </c>
+      <c r="C35">
+        <v>221012</v>
+      </c>
+      <c r="D35" s="1">
+        <v>44110</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2d50a084-93a8-405b-8960-d5f1cef6fa5d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3673,20 +4291,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2d50a084-93a8-405b-8960-d5f1cef6fa5d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B4F6BA0-B8C3-43D1-AEB4-F679EF05FCA2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B766932-2E45-4BFB-923D-9CE3AF707BE3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="2d50a084-93a8-405b-8960-d5f1cef6fa5d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3710,9 +4327,11 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B766932-2E45-4BFB-923D-9CE3AF707BE3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B4F6BA0-B8C3-43D1-AEB4-F679EF05FCA2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="2d50a084-93a8-405b-8960-d5f1cef6fa5d"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/データベース/※（重要）管理者情報.xlsx
+++ b/データベース/※（重要）管理者情報.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\php_note\pg\データベース\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC81E6D-92E9-40BD-AB51-DEDC3ABD403D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D555B69D-A539-4E3C-BAEF-F119BC0F9DCF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="3490" activeTab="4" xr2:uid="{821451F3-F626-4DB0-A678-FF46C59A053D}"/>
   </bookViews>
@@ -1783,7 +1783,7 @@
   <dimension ref="A2:I24"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2347,8 +2347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E397B0F-3868-4B0F-BA75-016CF143CE00}">
   <dimension ref="A2:J25"/>
   <sheetViews>
-    <sheetView topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -3605,10 +3605,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FEC647B-3FCB-4D5B-BD81-B7FF9BAA6875}">
-  <dimension ref="A2:E35"/>
+  <dimension ref="A2:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -4094,6 +4094,160 @@
       </c>
       <c r="E35">
         <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B36">
+        <v>1116</v>
+      </c>
+      <c r="C36">
+        <v>221007</v>
+      </c>
+      <c r="D36" s="1">
+        <v>44365</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B37">
+        <v>1116</v>
+      </c>
+      <c r="C37">
+        <v>221011</v>
+      </c>
+      <c r="D37" s="1">
+        <v>44989</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B38">
+        <v>1117</v>
+      </c>
+      <c r="C38">
+        <v>221013</v>
+      </c>
+      <c r="D38" s="1">
+        <v>44527</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B39">
+        <v>1117</v>
+      </c>
+      <c r="C39">
+        <v>221016</v>
+      </c>
+      <c r="D39" s="1">
+        <v>45386</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B40">
+        <v>1118</v>
+      </c>
+      <c r="C40">
+        <v>221021</v>
+      </c>
+      <c r="D40" s="1">
+        <v>45616</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B41">
+        <v>1118</v>
+      </c>
+      <c r="C41">
+        <v>221019</v>
+      </c>
+      <c r="D41" s="1">
+        <v>45404</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B42">
+        <v>1119</v>
+      </c>
+      <c r="C42">
+        <v>221007</v>
+      </c>
+      <c r="D42" s="1">
+        <v>44326</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B43">
+        <v>1119</v>
+      </c>
+      <c r="C43">
+        <v>221015</v>
+      </c>
+      <c r="D43" s="1">
+        <v>45296</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B44">
+        <v>1120</v>
+      </c>
+      <c r="C44">
+        <v>221014</v>
+      </c>
+      <c r="D44" s="1">
+        <v>45449</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B45">
+        <v>1121</v>
+      </c>
+      <c r="C45">
+        <v>221017</v>
+      </c>
+      <c r="D45" s="1">
+        <v>45283</v>
+      </c>
+      <c r="E45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B46">
+        <v>1122</v>
+      </c>
+      <c r="C46">
+        <v>221022</v>
+      </c>
+      <c r="D46" s="1">
+        <v>45441</v>
+      </c>
+      <c r="E46">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -4113,6 +4267,16 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2d50a084-93a8-405b-8960-d5f1cef6fa5d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100F6A22B1C81D78643B33A6B784A8F7C4A" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="63889d32b2ea2c0b9212e4b81ce9afbc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2d50a084-93a8-405b-8960-d5f1cef6fa5d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bf8056ffa544be42e4b68638754c0970" ns2:_="">
     <xsd:import namespace="2d50a084-93a8-405b-8960-d5f1cef6fa5d"/>
@@ -4290,16 +4454,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2d50a084-93a8-405b-8960-d5f1cef6fa5d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B766932-2E45-4BFB-923D-9CE3AF707BE3}">
   <ds:schemaRefs>
@@ -4309,6 +4463,16 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B4F6BA0-B8C3-43D1-AEB4-F679EF05FCA2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="2d50a084-93a8-405b-8960-d5f1cef6fa5d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9FCBD2B-2A7B-4FDA-9626-3B55F4EC28E6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4324,14 +4488,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B4F6BA0-B8C3-43D1-AEB4-F679EF05FCA2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="2d50a084-93a8-405b-8960-d5f1cef6fa5d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>